--- a/medicine/Enfance/Yoru_Sumino/Yoru_Sumino.xlsx
+++ b/medicine/Enfance/Yoru_Sumino/Yoru_Sumino.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yoru Sumino (住野 よる, Sumino Yoru?) est un romancier et écrivain de light novels japonais résidant dans la préfecture d'Osaka. Il est connu pour son roman Je veux manger ton pancréas, adapté au cinéma en 2017.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yoru Sumino commence à écrire durant ses années au lycée. Il soumet une première histoire au Grand prix du roman Dengeki, mais celle-ci ne passe pas le premier tour de sélection. Il décide alors de réviser son style pour publier Je veux manger ton pancréas, mais le manuscrit final est trop long pour participer au prix[1].
-Son premier roman est finalement publié sur la plateforme Shōsetsuka ni narō en 2014, sous le nom de plume Yasumi Yano (夜野 やすみ, Yano Yasumi?). L'année suivante, l'histoire est publiée par Futabasha[1]. Il remporte la seconde place du Grand prix des libraires en 2016 pour Je veux manger ton pancréas[2]. En 2019, son roman Aokute Itakute Moroi remporte la première place dans les livres les plus lus par jeunes de 20 ans en 2018 de honto.jp (ja)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yoru Sumino commence à écrire durant ses années au lycée. Il soumet une première histoire au Grand prix du roman Dengeki, mais celle-ci ne passe pas le premier tour de sélection. Il décide alors de réviser son style pour publier Je veux manger ton pancréas, mais le manuscrit final est trop long pour participer au prix.
+Son premier roman est finalement publié sur la plateforme Shōsetsuka ni narō en 2014, sous le nom de plume Yasumi Yano (夜野 やすみ, Yano Yasumi?). L'année suivante, l'histoire est publiée par Futabasha. Il remporte la seconde place du Grand prix des libraires en 2016 pour Je veux manger ton pancréas. En 2019, son roman Aokute Itakute Moroi remporte la première place dans les livres les plus lus par jeunes de 20 ans en 2018 de honto.jp (ja).
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Principales œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Je veux manger ton pancréas (君の膵臓をたべたい, Kimi no suizō wo tabetai?), illustré par loundraw (ja), Futabasha, juin 2015,  (ISBN 978-4-575-23905-8).
 Mata, Onaji Yume wo Mite Ita (en) (また、同じ夢を見ていた, Mata, onaji no yume o miteita?)[N 1], illustré par loundraw, Futabasha, février 2016,  (ISBN 978-4-575-23945-4).
@@ -591,10 +607,12 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ayant généré plus de deux millions de ventes, Je veux manger ton pancréas connaît plusieurs adaptations, dont un manga dessiné par Izumi Kirihara et sérialisé en deux volumes. Un film mettant en scène Minami Hamabe et Takumi Kitamura (en) sort en 2017, et un film d'animation sort en 2018[4].
-Mata, Onaji Yume wo Mite Ita a lui aussi été adapté en manga, également dessiné par Izumi Kirihara, écrit de septembre 2017 à août 2018 et rassemblé en trois volumes[5]. Kakushigoto est une autre œuvre de Sumino adaptée en manga, avec un premier volume publié en avril 2019 et dessiné par Nieki Zui[6]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ayant généré plus de deux millions de ventes, Je veux manger ton pancréas connaît plusieurs adaptations, dont un manga dessiné par Izumi Kirihara et sérialisé en deux volumes. Un film mettant en scène Minami Hamabe et Takumi Kitamura (en) sort en 2017, et un film d'animation sort en 2018.
+Mata, Onaji Yume wo Mite Ita a lui aussi été adapté en manga, également dessiné par Izumi Kirihara, écrit de septembre 2017 à août 2018 et rassemblé en trois volumes. Kakushigoto est une autre œuvre de Sumino adaptée en manga, avec un premier volume publié en avril 2019 et dessiné par Nieki Zui
 </t>
         </is>
       </c>
